--- a/StructureDefinition-profile-DetectedIssue.xlsx
+++ b/StructureDefinition-profile-DetectedIssue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6640015-06:00</t>
+    <t>2026-02-09T22:05:43.0616976-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,33 +429,80 @@
     <t>DetectedIssue.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DetectedIssue.extension:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.category|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DetectedIssue.category from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of detected issue.</t>
+  </si>
+  <si>
+    <t>Element `DetectedIssue.category` is will have a context of DetectedIssue based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DetectedIssue.extension:encounter</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DetectedIssue.encounter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DetectedIssue.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DetectedIssue.encounter` is will have a context of DetectedIssue based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
+  </si>
+  <si>
+    <t>DetectedIssue.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DetectedIssue.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -463,6 +510,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -547,20 +597,13 @@
     <t>DetectedIssue.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.status|0.0.1-snapshot-3}
@@ -570,11 +613,8 @@
     <t>Cross-version extension for DetectedIssue.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the issue as not currently valid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `DetectedIssue.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `DetectedIssue.status` is mapped to FHIR R4 element `DetectedIssue.status`.</t>
   </si>
   <si>
     <t>DetectedIssue.status.value</t>
@@ -787,6 +827,9 @@
     <t>DetectedIssue.evidence.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -883,6 +926,25 @@
   </si>
   <si>
     <t>DetectedIssue.mitigation.extension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.mitigation.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.mitigation.note|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DetectedIssue.mitigation.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Clinicians may add additional notes or justifications about the mitigation action. For example, patient can have this drug because they have had it before without any issues. Multiple justifications may be provided.</t>
+  </si>
+  <si>
+    <t>Element `DetectedIssue.mitigation.note` is will have a context of DetectedIssue.mitigation based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
   </si>
   <si>
     <t>DetectedIssue.mitigation.modifierExtension</t>
@@ -1239,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1258,7 +1320,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.84375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2214,7 +2276,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2233,17 +2295,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2280,16 +2340,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2313,7 +2371,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -2324,11 +2382,13 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2341,26 +2401,24 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2408,7 +2466,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2417,7 +2475,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2429,7 +2487,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -2437,12 +2495,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
       </c>
@@ -2451,7 +2511,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -2460,21 +2520,21 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -2522,7 +2582,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2534,38 +2594,38 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -2574,21 +2634,23 @@
         <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2612,63 +2674,63 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2679,7 +2741,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -2688,19 +2750,21 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -2748,31 +2812,31 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2784,34 +2848,36 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -2836,44 +2902,46 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -2882,15 +2950,15 @@
         <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2898,7 +2966,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
@@ -2913,17 +2981,15 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -2972,19 +3038,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3001,10 +3067,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3012,10 +3078,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3027,13 +3093,13 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3072,31 +3138,29 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -3113,18 +3177,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3136,18 +3202,20 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3172,13 +3240,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3196,43 +3264,43 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3248,16 +3316,16 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3284,13 +3352,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3320,31 +3388,31 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3363,18 +3431,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3398,13 +3464,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -3422,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3437,28 +3503,28 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3477,18 +3543,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3512,13 +3576,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -3536,7 +3600,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3551,24 +3615,24 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3591,16 +3655,18 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -3648,7 +3714,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3663,35 +3729,35 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -3703,18 +3769,18 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -3762,13 +3828,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -3777,24 +3843,24 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3805,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -3814,16 +3880,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3874,13 +3940,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -3889,35 +3955,35 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -3926,18 +3992,20 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -3986,28 +4054,28 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4015,14 +4083,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4041,17 +4109,15 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4100,7 +4166,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4112,7 +4178,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4121,54 +4187,50 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4216,19 +4278,19 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -4237,7 +4299,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4245,14 +4307,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4271,15 +4333,17 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4304,13 +4368,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4328,7 +4392,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4340,7 +4404,7 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4349,22 +4413,22 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4377,22 +4441,26 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4440,7 +4508,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4452,7 +4520,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -4461,18 +4529,18 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4483,7 +4551,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4495,17 +4563,15 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -4530,13 +4596,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -4554,13 +4620,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -4569,24 +4635,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4597,7 +4663,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4609,13 +4675,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4666,13 +4732,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -4687,18 +4753,18 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4709,7 +4775,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -4721,15 +4787,17 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -4778,13 +4846,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -4793,13 +4861,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -4807,10 +4875,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4833,13 +4901,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4890,7 +4958,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4902,7 +4970,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -4911,7 +4979,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -4919,14 +4987,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4945,17 +5013,15 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5004,7 +5070,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5016,7 +5082,7 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5025,7 +5091,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5033,46 +5099,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5120,19 +5182,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5141,7 +5203,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5149,10 +5211,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5160,10 +5222,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5175,17 +5237,15 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5210,43 +5270,41 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5255,7 +5313,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5263,12 +5321,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5277,7 +5337,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5289,16 +5349,16 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5348,19 +5408,19 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -5369,7 +5429,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5377,42 +5437,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -5460,30 +5524,370 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AI37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="G38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DetectedIssue.xlsx
+++ b/StructureDefinition-profile-DetectedIssue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="316">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0616976-06:00</t>
+    <t>2026-02-17T14:42:26.7809655-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,7 +469,7 @@
     <t>A code that classifies the general type of detected issue.</t>
   </si>
   <si>
-    <t>Element `DetectedIssue.category` is will have a context of DetectedIssue based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
+    <t>Element `DetectedIssue.category` has a context of DetectedIssue based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -493,7 +493,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DetectedIssue.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DetectedIssue.encounter` is will have a context of DetectedIssue based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
+Element `DetectedIssue.encounter` has a context of DetectedIssue based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
   </si>
   <si>
     <t>DetectedIssue.modifierExtension</t>
@@ -614,7 +614,7 @@
   </si>
   <si>
     <t>Note that the target element context `DetectedIssue.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DetectedIssue.status` is mapped to FHIR R4 element `DetectedIssue.status`.</t>
+Element `DetectedIssue.status` has is mapped to FHIR R4 element `DetectedIssue.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>DetectedIssue.status.value</t>
@@ -827,10 +827,20 @@
     <t>DetectedIssue.evidence.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>DetectedIssue.evidence.extension:evidence</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.evidence|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DetectedIssue.evidence from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DetectedIssue.evidence` has is mapped to FHIR R4 element `DetectedIssue.evidence`, but has no comparisons.</t>
   </si>
   <si>
     <t>DetectedIssue.evidence.modifierExtension</t>
@@ -928,23 +938,20 @@
     <t>DetectedIssue.mitigation.extension</t>
   </si>
   <si>
-    <t>DetectedIssue.mitigation.extension:note</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.mitigation.note|0.0.1-snapshot-3}
+    <t>DetectedIssue.mitigation.extension:mitigation</t>
+  </si>
+  <si>
+    <t>mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.mitigation|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DetectedIssue.mitigation.note from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Clinicians may add additional notes or justifications about the mitigation action. For example, patient can have this drug because they have had it before without any issues. Multiple justifications may be provided.</t>
-  </si>
-  <si>
-    <t>Element `DetectedIssue.mitigation.note` is will have a context of DetectedIssue.mitigation based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
+    <t>Cross-version extension for DetectedIssue.mitigation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DetectedIssue.mitigation` has is mapped to FHIR R4 element `DetectedIssue.mitigation`, but has no comparisons.</t>
   </si>
   <si>
     <t>DetectedIssue.mitigation.modifierExtension</t>
@@ -1301,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1310,7 +1317,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.09765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="35.4453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1320,7 +1327,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4314,7 +4321,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4336,14 +4343,12 @@
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4380,16 +4385,14 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>186</v>
@@ -4413,7 +4416,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4421,14 +4424,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4441,26 +4446,24 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4517,7 +4520,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>140</v>
@@ -4529,7 +4532,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -4537,14 +4540,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4557,22 +4560,26 @@
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -4596,13 +4603,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -4620,7 +4627,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4632,7 +4639,7 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -4641,18 +4648,18 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4675,13 +4682,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4708,13 +4715,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -4732,7 +4739,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4775,7 +4782,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -4787,7 +4794,7 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>276</v>
@@ -4795,9 +4802,7 @@
       <c r="M31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -4852,7 +4857,7 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -4861,24 +4866,24 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4901,15 +4906,17 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -4958,7 +4965,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4973,13 +4980,13 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -4987,10 +4994,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5001,7 +5008,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5013,13 +5020,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5070,13 +5077,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5091,7 +5098,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5099,10 +5106,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5113,7 +5120,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5125,13 +5132,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5182,19 +5189,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5203,7 +5210,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5211,10 +5218,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5225,7 +5232,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5237,13 +5244,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5282,29 +5289,31 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5313,7 +5322,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5321,14 +5330,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5349,17 +5356,15 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5396,16 +5401,14 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>186</v>
@@ -5417,7 +5420,7 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>140</v>
@@ -5437,14 +5440,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5457,26 +5462,24 @@
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5533,7 +5536,7 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>140</v>
@@ -5545,7 +5548,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5553,44 +5556,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -5614,13 +5619,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -5638,19 +5643,19 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -5659,7 +5664,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5667,10 +5672,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5678,7 +5683,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -5693,16 +5698,16 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5728,13 +5733,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -5752,10 +5757,10 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>89</v>
@@ -5773,7 +5778,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -5781,10 +5786,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5807,15 +5812,17 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -5864,7 +5871,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5885,9 +5892,121 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DetectedIssue.xlsx
+++ b/StructureDefinition-profile-DetectedIssue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="360">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7809655-06:00</t>
+    <t>2026-02-20T11:59:20.7764907-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DetectedIssue|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DetectedIssue</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -459,7 +459,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.category|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.category}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.status}
 </t>
   </si>
   <si>
@@ -717,6 +717,120 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>DetectedIssue.patient.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DetectedIssue.patient.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>DetectedIssue.patient.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DetectedIssue.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Medication,http://hl7.org/fhir/StructureDefinition/NutritionProduct,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Procedure,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DetectedIssue.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DetectedIssue.subject` has is mapped to FHIR R4 element `DetectedIssue.patient`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>DetectedIssue.patient.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DetectedIssue.patient.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DetectedIssue.patient.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DetectedIssue.patient.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>DetectedIssue.identified[x]</t>
   </si>
   <si>
@@ -770,6 +884,40 @@
     <t>FiveWs.author</t>
   </si>
   <si>
+    <t>DetectedIssue.author.id</t>
+  </si>
+  <si>
+    <t>DetectedIssue.author.extension</t>
+  </si>
+  <si>
+    <t>DetectedIssue.author.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DetectedIssue.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DetectedIssue.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DetectedIssue.author` has is mapped to FHIR R4 element `DetectedIssue.author`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>DetectedIssue.author.reference</t>
+  </si>
+  <si>
+    <t>DetectedIssue.author.type</t>
+  </si>
+  <si>
+    <t>DetectedIssue.author.identifier</t>
+  </si>
+  <si>
+    <t>DetectedIssue.author.display</t>
+  </si>
+  <si>
     <t>DetectedIssue.implicated</t>
   </si>
   <si>
@@ -815,15 +963,6 @@
     <t>DetectedIssue.evidence.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DetectedIssue.evidence.extension</t>
   </si>
   <si>
@@ -833,7 +972,7 @@
     <t>evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.evidence|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.evidence}
 </t>
   </si>
   <si>
@@ -944,7 +1083,7 @@
     <t>mitigation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.mitigation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.mitigation}
 </t>
   </si>
   <si>
@@ -1308,7 +1447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1327,7 +1466,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1345,7 +1484,7 @@
     <col min="26" max="26" width="54.65234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3773,21 +3912,19 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -3835,7 +3972,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3847,27 +3984,27 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3878,7 +4015,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -3887,16 +4024,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3935,62 +4072,64 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -3999,19 +4138,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4061,7 +4200,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4073,16 +4212,16 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4090,10 +4229,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4104,7 +4243,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4113,18 +4252,20 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4173,16 +4314,16 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>101</v>
@@ -4194,18 +4335,18 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4225,18 +4366,20 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4261,13 +4404,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4285,7 +4428,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4297,7 +4440,7 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -4306,7 +4449,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4314,10 +4457,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4328,7 +4471,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4337,18 +4480,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4385,29 +4530,31 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4416,7 +4563,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4424,14 +4571,12 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4440,7 +4585,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4449,19 +4594,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4511,19 +4656,19 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -4532,7 +4677,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -4540,45 +4685,43 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -4627,31 +4770,31 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -4670,7 +4813,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4679,16 +4822,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4715,13 +4858,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -4745,7 +4888,7 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -4754,24 +4897,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4782,7 +4925,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -4794,13 +4937,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4851,19 +4994,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -4872,10 +5015,10 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -4894,7 +5037,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -4906,17 +5049,15 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -4953,40 +5094,40 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -4994,12 +5135,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5020,15 +5163,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5077,19 +5222,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5098,7 +5243,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5106,10 +5251,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5120,7 +5265,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5129,18 +5274,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5189,16 +5336,16 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>101</v>
@@ -5210,7 +5357,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5218,10 +5365,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5241,18 +5388,20 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5277,13 +5426,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5301,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5313,7 +5462,7 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5322,7 +5471,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5330,10 +5479,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5344,7 +5493,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5353,18 +5502,20 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5401,29 +5552,31 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -5432,7 +5585,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5440,14 +5593,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -5456,7 +5607,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -5465,19 +5616,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5527,19 +5678,19 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -5548,7 +5699,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5556,14 +5707,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5576,26 +5727,24 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -5643,7 +5792,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5655,16 +5804,16 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5672,10 +5821,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5683,10 +5832,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -5698,17 +5847,15 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -5733,13 +5880,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -5757,13 +5904,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -5778,18 +5925,18 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5812,17 +5959,15 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -5871,7 +6016,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5883,7 +6028,7 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -5892,7 +6037,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -5900,10 +6045,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5914,7 +6059,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -5926,13 +6071,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5971,42 +6116,1628 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AK46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC50" s="2"/>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DetectedIssue.xlsx
+++ b/StructureDefinition-profile-DetectedIssue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7764907-06:00</t>
+    <t>2026-02-21T13:36:54.1853707-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DetectedIssue</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DetectedIssue|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -459,7 +459,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.category}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.category|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -476,26 +476,6 @@
 </t>
   </si>
   <si>
-    <t>DetectedIssue.extension:encounter</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DetectedIssue.encounter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DetectedIssue.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DetectedIssue.encounter` has a context of DetectedIssue based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
-  </si>
-  <si>
     <t>DetectedIssue.modifierExtension</t>
   </si>
   <si>
@@ -606,7 +586,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -614,7 +594,7 @@
   </si>
   <si>
     <t>Note that the target element context `DetectedIssue.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DetectedIssue.status` has is mapped to FHIR R4 element `DetectedIssue.status`, but has no comparisons.</t>
+Element `DetectedIssue.status` is mapped to FHIR R4 element `DetectedIssue.status` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>DetectedIssue.status.value</t>
@@ -717,120 +697,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>DetectedIssue.patient.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DetectedIssue.patient.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>DetectedIssue.patient.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DetectedIssue.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Medication,http://hl7.org/fhir/StructureDefinition/NutritionProduct,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/Procedure,http://hl7.org/fhir/StructureDefinition/Substance in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DetectedIssue.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DetectedIssue.subject` has is mapped to FHIR R4 element `DetectedIssue.patient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DetectedIssue.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>DetectedIssue.patient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>DetectedIssue.patient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>DetectedIssue.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>DetectedIssue.identified[x]</t>
   </si>
   <si>
@@ -884,40 +750,6 @@
     <t>FiveWs.author</t>
   </si>
   <si>
-    <t>DetectedIssue.author.id</t>
-  </si>
-  <si>
-    <t>DetectedIssue.author.extension</t>
-  </si>
-  <si>
-    <t>DetectedIssue.author.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DetectedIssue.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DetectedIssue.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DetectedIssue.author` has is mapped to FHIR R4 element `DetectedIssue.author`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>DetectedIssue.author.reference</t>
-  </si>
-  <si>
-    <t>DetectedIssue.author.type</t>
-  </si>
-  <si>
-    <t>DetectedIssue.author.identifier</t>
-  </si>
-  <si>
-    <t>DetectedIssue.author.display</t>
-  </si>
-  <si>
     <t>DetectedIssue.implicated</t>
   </si>
   <si>
@@ -963,23 +795,22 @@
     <t>DetectedIssue.evidence.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>DetectedIssue.evidence.extension</t>
   </si>
   <si>
-    <t>DetectedIssue.evidence.extension:evidence</t>
-  </si>
-  <si>
-    <t>evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.evidence}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DetectedIssue.evidence from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `DetectedIssue.evidence` has is mapped to FHIR R4 element `DetectedIssue.evidence`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DetectedIssue.evidence.modifierExtension</t>
@@ -1077,20 +908,23 @@
     <t>DetectedIssue.mitigation.extension</t>
   </si>
   <si>
-    <t>DetectedIssue.mitigation.extension:mitigation</t>
-  </si>
-  <si>
-    <t>mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.mitigation}
+    <t>DetectedIssue.mitigation.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DetectedIssue.mitigation.note|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for DetectedIssue.mitigation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `DetectedIssue.mitigation` has is mapped to FHIR R4 element `DetectedIssue.mitigation`, but has no comparisons.</t>
+    <t>Cross-version extension for DetectedIssue.mitigation.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Clinicians may add additional notes or justifications about the mitigation action. For example, patient can have this drug because they have had it before without any issues. Multiple justifications may be provided.</t>
+  </si>
+  <si>
+    <t>Element `DetectedIssue.mitigation.note` has a context of DetectedIssue.mitigation based on following the parent source element upwards and mapping to `DetectedIssue`.</t>
   </si>
   <si>
     <t>DetectedIssue.mitigation.modifierExtension</t>
@@ -1447,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1456,7 +1290,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="35.4453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1466,7 +1300,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1484,7 +1318,7 @@
     <col min="26" max="26" width="54.65234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2644,43 +2478,43 @@
         <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -2728,7 +2562,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2749,7 +2583,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -2757,14 +2591,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2777,23 +2611,21 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>159</v>
       </c>
@@ -2844,7 +2676,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2856,61 +2688,61 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -2934,13 +2766,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -2958,13 +2790,13 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
@@ -2973,32 +2805,32 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>89</v>
@@ -3007,23 +2839,21 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3048,13 +2878,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3072,10 +2902,10 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>89</v>
@@ -3084,10 +2914,10 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -3096,15 +2926,15 @@
         <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3112,10 +2942,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3127,13 +2957,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3172,31 +3002,29 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3213,12 +3041,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3227,7 +3057,7 @@
         <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3239,15 +3069,17 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3284,17 +3116,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3303,7 +3137,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>140</v>
@@ -3323,20 +3157,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3351,17 +3183,15 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3410,19 +3240,19 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3439,14 +3269,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3462,13 +3292,13 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>193</v>
@@ -3498,13 +3328,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3522,7 +3352,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3534,31 +3364,31 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3577,13 +3407,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3610,31 +3440,31 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3649,28 +3479,28 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3689,16 +3519,18 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3722,13 +3554,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -3746,7 +3578,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3761,24 +3593,24 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3801,17 +3633,17 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -3860,7 +3692,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3875,24 +3707,24 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3912,16 +3744,16 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3972,7 +3804,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3984,31 +3816,31 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4024,18 +3856,20 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4072,19 +3906,19 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4096,16 +3930,16 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4113,14 +3947,12 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4129,7 +3961,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4141,17 +3973,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4200,7 +4030,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4212,7 +4042,7 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4224,15 +4054,15 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4252,20 +4082,18 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4314,7 +4142,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4323,10 +4151,10 @@
         <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4335,7 +4163,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4343,21 +4171,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4366,19 +4194,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4404,13 +4232,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4428,19 +4256,19 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -4449,7 +4277,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4457,44 +4285,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4542,19 +4372,19 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4563,7 +4393,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4571,10 +4401,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4585,7 +4415,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4594,20 +4424,18 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -4632,13 +4460,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -4656,13 +4484,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -4677,18 +4505,18 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4699,7 +4527,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4708,21 +4536,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -4770,13 +4596,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -4785,16 +4611,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
@@ -4822,18 +4648,20 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -4906,15 +4734,15 @@
         <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4937,13 +4765,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4994,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5006,7 +4834,7 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5015,7 +4843,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5023,10 +4851,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5049,13 +4877,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5094,19 +4922,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5118,7 +4946,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5127,7 +4955,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5135,14 +4963,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5163,17 +4989,15 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5222,19 +5046,19 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5243,7 +5067,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5251,10 +5075,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5265,7 +5089,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5274,20 +5098,18 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5324,31 +5146,29 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5357,7 +5177,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5365,12 +5185,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5379,7 +5201,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5388,19 +5210,19 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5426,13 +5248,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5450,19 +5272,19 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5471,7 +5293,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5479,44 +5301,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5564,19 +5388,19 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -5585,7 +5409,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5593,10 +5417,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5604,7 +5428,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -5616,19 +5440,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5654,13 +5478,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -5678,10 +5502,10 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>89</v>
@@ -5699,7 +5523,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5707,21 +5531,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -5730,19 +5554,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5792,13 +5616,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -5807,13 +5631,13 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5821,10 +5645,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5835,7 +5659,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -5847,13 +5671,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5904,13 +5728,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -5925,1819 +5749,9 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
